--- a/output/damage/BRN_osm_tc__CMCC-CM2-VHR4_damage_1.xlsx
+++ b/output/damage/BRN_osm_tc__CMCC-CM2-VHR4_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.894210518502857e-06</v>
+        <v>0.01827561527370734</v>
       </c>
       <c r="F2" t="n">
-        <v>1.420657888877143e-06</v>
+        <v>0.01370671145528051</v>
       </c>
       <c r="G2" t="n">
-        <v>2.367763148128572e-06</v>
+        <v>0.02284451909213418</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.788421037005714e-06</v>
+        <v>0.03655123054741469</v>
       </c>
       <c r="F3" t="n">
-        <v>2.841315777754286e-06</v>
+        <v>0.02741342291056102</v>
       </c>
       <c r="G3" t="n">
-        <v>4.735526296257143e-06</v>
+        <v>0.04568903818426837</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9.471052592514287e-06</v>
+        <v>0.09137807636853673</v>
       </c>
       <c r="F4" t="n">
-        <v>7.103289444385715e-06</v>
+        <v>0.06853355727640255</v>
       </c>
       <c r="G4" t="n">
-        <v>1.183881574064286e-05</v>
+        <v>0.1142225954606709</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.358380173204059e-12</v>
+        <v>2.138836378991587e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>3.268785129903044e-12</v>
+        <v>1.604127284243691e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>5.447975216505074e-12</v>
+        <v>2.673545473739484e-06</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.716760346408118e-12</v>
+        <v>4.277672757983174e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>6.537570259806089e-12</v>
+        <v>3.208254568487381e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1.089595043301015e-11</v>
+        <v>5.347090947478969e-06</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.17919008660203e-11</v>
+        <v>1.069418189495794e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.634392564951522e-11</v>
+        <v>8.020636421218452e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.723987608252537e-11</v>
+        <v>1.336772736869742e-05</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.33535712435346e-12</v>
+        <v>1.289909360569321e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>3.251517843265095e-12</v>
+        <v>9.674320204269914e-07</v>
       </c>
       <c r="G8" t="n">
-        <v>5.419196405441825e-12</v>
+        <v>1.612386700711652e-06</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8.670714248706921e-12</v>
+        <v>2.579818721138643e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>6.50303568653019e-12</v>
+        <v>1.934864040853983e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>1.083839281088365e-11</v>
+        <v>3.224773401423304e-06</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.16767856217673e-11</v>
+        <v>6.449546802846609e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>1.625758921632548e-11</v>
+        <v>4.837160102134957e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>2.709598202720913e-11</v>
+        <v>8.061933503558262e-06</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.703292358039533e-11</v>
+        <v>4.58488889957277e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>3.52746926852965e-11</v>
+        <v>3.438666674679578e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>5.879115447549416e-11</v>
+        <v>5.731111124465963e-06</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.406584716079065e-11</v>
+        <v>9.16977779914554e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>7.0549385370593e-11</v>
+        <v>6.877333349359155e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>1.175823089509883e-10</v>
+        <v>1.146222224893193e-05</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.351646179019766e-10</v>
+        <v>2.292444449786385e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>1.763734634264825e-10</v>
+        <v>1.719333337339789e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>2.939557723774708e-10</v>
+        <v>2.865555562232982e-05</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.095155052280935e-12</v>
+        <v>6.613135780098942e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>3.071366289210702e-12</v>
+        <v>4.959851835074207e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>5.11894381535117e-12</v>
+        <v>8.26641972512368e-07</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.19031010456187e-12</v>
+        <v>1.322627156019788e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>6.142732578421403e-12</v>
+        <v>9.919703670148415e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>1.023788763070234e-11</v>
+        <v>1.653283945024736e-06</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.047577526140468e-11</v>
+        <v>3.306567890049472e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>1.535683144605351e-11</v>
+        <v>2.479925917537104e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.559471907675585e-11</v>
+        <v>4.13320986256184e-06</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>287591.0318115523</v>
+        <v>44724.74318266502</v>
       </c>
       <c r="F17" t="n">
-        <v>215693.2738586642</v>
+        <v>33543.55738699877</v>
       </c>
       <c r="G17" t="n">
-        <v>359488.7897644404</v>
+        <v>55905.92897833129</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>575182.0636231046</v>
+        <v>102163.3086980738</v>
       </c>
       <c r="F18" t="n">
-        <v>431386.5477173285</v>
+        <v>76622.48152355537</v>
       </c>
       <c r="G18" t="n">
-        <v>718977.5795288809</v>
+        <v>127704.1358725923</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1437955.159057762</v>
+        <v>19842.07639740723</v>
       </c>
       <c r="F19" t="n">
-        <v>1078466.369293321</v>
+        <v>14881.55729805542</v>
       </c>
       <c r="G19" t="n">
-        <v>1797443.948822202</v>
+        <v>24802.59549675904</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>230615.6119266351</v>
+        <v>34362.1831408039</v>
       </c>
       <c r="F20" t="n">
-        <v>172961.7089449763</v>
+        <v>25771.63735560293</v>
       </c>
       <c r="G20" t="n">
-        <v>288269.5149082939</v>
+        <v>42952.72892600488</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>461231.2238532702</v>
+        <v>68724.3662816078</v>
       </c>
       <c r="F21" t="n">
-        <v>345923.4178899526</v>
+        <v>51543.27471120586</v>
       </c>
       <c r="G21" t="n">
-        <v>576539.0298165878</v>
+        <v>85905.45785200976</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1153078.059633176</v>
+        <v>213416.0171395254</v>
       </c>
       <c r="F22" t="n">
-        <v>864808.5447248815</v>
+        <v>160062.012854644</v>
       </c>
       <c r="G22" t="n">
-        <v>1441347.574541469</v>
+        <v>266770.0214244067</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.937578344497847e-08</v>
+        <v>0.0001460732431111117</v>
       </c>
       <c r="F23" t="n">
-        <v>1.453183758373385e-08</v>
+        <v>0.0001095549323333337</v>
       </c>
       <c r="G23" t="n">
-        <v>2.421972930622308e-08</v>
+        <v>0.0001825915538888896</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.875156688995693e-08</v>
+        <v>0.0002921464862222233</v>
       </c>
       <c r="F24" t="n">
-        <v>2.90636751674677e-08</v>
+        <v>0.0002191098646666675</v>
       </c>
       <c r="G24" t="n">
-        <v>4.843945861244617e-08</v>
+        <v>0.0003651831077777791</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.687891722489234e-08</v>
+        <v>0.0007303662155555583</v>
       </c>
       <c r="F25" t="n">
-        <v>7.265918791866924e-08</v>
+        <v>0.0005477746616666687</v>
       </c>
       <c r="G25" t="n">
-        <v>1.210986465311154e-07</v>
+        <v>0.000912957769444448</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.409412610779975e-15</v>
+        <v>2.766854436123959e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>2.557059458084981e-15</v>
+        <v>2.075140827092969e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>4.261765763474969e-15</v>
+        <v>3.458568045154949e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.818825221559949e-15</v>
+        <v>5.533708872247918e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>5.114118916169963e-15</v>
+        <v>4.150281654185939e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>8.523531526949938e-15</v>
+        <v>6.917136090309899e-09</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.704706305389988e-14</v>
+        <v>1.38342721806198e-08</v>
       </c>
       <c r="F28" t="n">
-        <v>1.278529729042491e-14</v>
+        <v>1.037570413546485e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>2.130882881737485e-14</v>
+        <v>1.729284022577475e-08</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.960343735410572e-15</v>
+        <v>2.069655053564895e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>3.720257801557929e-15</v>
+        <v>1.552241290173671e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>6.200429669263216e-15</v>
+        <v>2.587068816956119e-09</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9.920687470821144e-15</v>
+        <v>4.13931010712979e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>7.440515603115858e-15</v>
+        <v>3.104482580347343e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>1.240085933852643e-14</v>
+        <v>5.174137633912238e-09</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.480171867705287e-14</v>
+        <v>1.034827526782448e-08</v>
       </c>
       <c r="F31" t="n">
-        <v>1.860128900778965e-14</v>
+        <v>7.761206450868357e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>3.100214834631608e-14</v>
+        <v>1.29353440847806e-08</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.161295469101747e-13</v>
+        <v>1.216767426025302e-08</v>
       </c>
       <c r="F32" t="n">
-        <v>8.709716018263107e-14</v>
+        <v>9.125755695189768e-09</v>
       </c>
       <c r="G32" t="n">
-        <v>1.451619336377184e-13</v>
+        <v>1.520959282531628e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.322590938203495e-13</v>
+        <v>2.433534852050605e-08</v>
       </c>
       <c r="F33" t="n">
-        <v>1.741943203652621e-13</v>
+        <v>1.825151139037954e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>2.903238672754369e-13</v>
+        <v>3.041918565063256e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.806477345508738e-13</v>
+        <v>6.083837130126512e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>4.354858009131553e-13</v>
+        <v>4.562877847594885e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>7.258096681885923e-13</v>
+        <v>7.604796412658141e-08</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.50032413651083e-15</v>
+        <v>1.380451779828762e-09</v>
       </c>
       <c r="F35" t="n">
-        <v>5.625243102383122e-15</v>
+        <v>1.035338834871571e-09</v>
       </c>
       <c r="G35" t="n">
-        <v>9.375405170638538e-15</v>
+        <v>1.725564724785952e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.500064827302166e-14</v>
+        <v>2.760903559657524e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>1.125048620476624e-14</v>
+        <v>2.070677669743143e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>1.875081034127708e-14</v>
+        <v>3.451129449571905e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.750162068255415e-14</v>
+        <v>6.90225889914381e-09</v>
       </c>
       <c r="F37" t="n">
-        <v>2.812621551191561e-14</v>
+        <v>5.176694174357858e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>4.687702585319269e-14</v>
+        <v>8.627823623929762e-09</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>269540.2291219704</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F38" t="n">
-        <v>202155.1718414778</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G38" t="n">
-        <v>336925.286402463</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>539080.4582439407</v>
+        <v>84270.36355435466</v>
       </c>
       <c r="F39" t="n">
-        <v>404310.3436829555</v>
+        <v>63202.772665766</v>
       </c>
       <c r="G39" t="n">
-        <v>673850.572804926</v>
+        <v>105337.9544429433</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1347701.145609852</v>
+        <v>821.411242772782</v>
       </c>
       <c r="F40" t="n">
-        <v>1010775.859207389</v>
+        <v>616.0584320795865</v>
       </c>
       <c r="G40" t="n">
-        <v>1684626.432012315</v>
+        <v>1026.764053465978</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>194488.3726934159</v>
+        <v>29009.35710078072</v>
       </c>
       <c r="F41" t="n">
-        <v>145866.279520062</v>
+        <v>21757.01782558554</v>
       </c>
       <c r="G41" t="n">
-        <v>243110.46586677</v>
+        <v>36261.6963759759</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>388976.7453868319</v>
+        <v>59462.16396111248</v>
       </c>
       <c r="F42" t="n">
-        <v>291732.5590401239</v>
+        <v>44596.62297083437</v>
       </c>
       <c r="G42" t="n">
-        <v>486220.9317335399</v>
+        <v>74327.70495139061</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>972441.8634670798</v>
+        <v>169661.1974404739</v>
       </c>
       <c r="F43" t="n">
-        <v>729331.3976003098</v>
+        <v>127245.8980803554</v>
       </c>
       <c r="G43" t="n">
-        <v>1215552.32933385</v>
+        <v>212076.4968005924</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.937578344497847e-08</v>
+        <v>0.0001460732431111117</v>
       </c>
       <c r="F44" t="n">
-        <v>1.453183758373385e-08</v>
+        <v>0.0001095549323333337</v>
       </c>
       <c r="G44" t="n">
-        <v>2.421972930622308e-08</v>
+        <v>0.0001825915538888896</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.875156688995693e-08</v>
+        <v>0.0002921464862222233</v>
       </c>
       <c r="F45" t="n">
-        <v>2.90636751674677e-08</v>
+        <v>0.0002191098646666675</v>
       </c>
       <c r="G45" t="n">
-        <v>4.843945861244617e-08</v>
+        <v>0.0003651831077777791</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.687891722489234e-08</v>
+        <v>0.0007303662155555583</v>
       </c>
       <c r="F46" t="n">
-        <v>7.265918791866924e-08</v>
+        <v>0.0005477746616666687</v>
       </c>
       <c r="G46" t="n">
-        <v>1.210986465311154e-07</v>
+        <v>0.000912957769444448</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.409412610779975e-15</v>
+        <v>2.766854436123959e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>2.557059458084981e-15</v>
+        <v>2.075140827092969e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>4.261765763474969e-15</v>
+        <v>3.458568045154949e-09</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.818825221559949e-15</v>
+        <v>5.533708872247918e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>5.114118916169963e-15</v>
+        <v>4.150281654185939e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>8.523531526949938e-15</v>
+        <v>6.917136090309899e-09</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.704706305389988e-14</v>
+        <v>1.38342721806198e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>1.278529729042491e-14</v>
+        <v>1.037570413546485e-08</v>
       </c>
       <c r="G49" t="n">
-        <v>2.130882881737485e-14</v>
+        <v>1.729284022577475e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.960343735410572e-15</v>
+        <v>2.069655053564895e-09</v>
       </c>
       <c r="F50" t="n">
-        <v>3.720257801557929e-15</v>
+        <v>1.552241290173671e-09</v>
       </c>
       <c r="G50" t="n">
-        <v>6.200429669263216e-15</v>
+        <v>2.587068816956119e-09</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.920687470821144e-15</v>
+        <v>4.13931010712979e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>7.440515603115858e-15</v>
+        <v>3.104482580347343e-09</v>
       </c>
       <c r="G51" t="n">
-        <v>1.240085933852643e-14</v>
+        <v>5.174137633912238e-09</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.480171867705287e-14</v>
+        <v>1.034827526782448e-08</v>
       </c>
       <c r="F52" t="n">
-        <v>1.860128900778965e-14</v>
+        <v>7.761206450868357e-09</v>
       </c>
       <c r="G52" t="n">
-        <v>3.100214834631608e-14</v>
+        <v>1.29353440847806e-08</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.161295469101747e-13</v>
+        <v>1.216767426025302e-08</v>
       </c>
       <c r="F53" t="n">
-        <v>8.709716018263107e-14</v>
+        <v>9.125755695189768e-09</v>
       </c>
       <c r="G53" t="n">
-        <v>1.451619336377184e-13</v>
+        <v>1.520959282531628e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.322590938203495e-13</v>
+        <v>2.433534852050605e-08</v>
       </c>
       <c r="F54" t="n">
-        <v>1.741943203652621e-13</v>
+        <v>1.825151139037954e-08</v>
       </c>
       <c r="G54" t="n">
-        <v>2.903238672754369e-13</v>
+        <v>3.041918565063256e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5.806477345508738e-13</v>
+        <v>6.083837130126512e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>4.354858009131553e-13</v>
+        <v>4.562877847594885e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>7.258096681885923e-13</v>
+        <v>7.604796412658141e-08</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7.50032413651083e-15</v>
+        <v>1.380451779828762e-09</v>
       </c>
       <c r="F56" t="n">
-        <v>5.625243102383122e-15</v>
+        <v>1.035338834871571e-09</v>
       </c>
       <c r="G56" t="n">
-        <v>9.375405170638538e-15</v>
+        <v>1.725564724785952e-09</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.500064827302166e-14</v>
+        <v>2.760903559657524e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>1.125048620476624e-14</v>
+        <v>2.070677669743143e-09</v>
       </c>
       <c r="G57" t="n">
-        <v>1.875081034127708e-14</v>
+        <v>3.451129449571905e-09</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3.750162068255415e-14</v>
+        <v>6.90225889914381e-09</v>
       </c>
       <c r="F58" t="n">
-        <v>2.812621551191561e-14</v>
+        <v>5.176694174357858e-09</v>
       </c>
       <c r="G58" t="n">
-        <v>4.687702585319269e-14</v>
+        <v>8.627823623929762e-09</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>269540.2291219704</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F59" t="n">
-        <v>202155.1718414778</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G59" t="n">
-        <v>336925.286402463</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>539080.4582439407</v>
+        <v>84270.36355435466</v>
       </c>
       <c r="F60" t="n">
-        <v>404310.3436829555</v>
+        <v>63202.772665766</v>
       </c>
       <c r="G60" t="n">
-        <v>673850.572804926</v>
+        <v>105337.9544429433</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1347701.145609852</v>
+        <v>821.411242772782</v>
       </c>
       <c r="F61" t="n">
-        <v>1010775.859207389</v>
+        <v>616.0584320795865</v>
       </c>
       <c r="G61" t="n">
-        <v>1684626.432012315</v>
+        <v>1026.764053465978</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>194488.3726934159</v>
+        <v>29009.35710078072</v>
       </c>
       <c r="F62" t="n">
-        <v>145866.279520062</v>
+        <v>21757.01782558554</v>
       </c>
       <c r="G62" t="n">
-        <v>243110.46586677</v>
+        <v>36261.6963759759</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>388976.7453868319</v>
+        <v>59462.16396111248</v>
       </c>
       <c r="F63" t="n">
-        <v>291732.5590401239</v>
+        <v>44596.62297083437</v>
       </c>
       <c r="G63" t="n">
-        <v>486220.9317335399</v>
+        <v>74327.70495139061</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>972441.8634670798</v>
+        <v>169661.1974404739</v>
       </c>
       <c r="F64" t="n">
-        <v>729331.3976003098</v>
+        <v>127245.8980803554</v>
       </c>
       <c r="G64" t="n">
-        <v>1215552.32933385</v>
+        <v>212076.4968005924</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.937578344497847e-08</v>
+        <v>0.0001460732431111117</v>
       </c>
       <c r="F65" t="n">
-        <v>1.453183758373385e-08</v>
+        <v>0.0001095549323333337</v>
       </c>
       <c r="G65" t="n">
-        <v>2.421972930622308e-08</v>
+        <v>0.0001825915538888896</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.875156688995693e-08</v>
+        <v>0.0002921464862222233</v>
       </c>
       <c r="F66" t="n">
-        <v>2.90636751674677e-08</v>
+        <v>0.0002191098646666675</v>
       </c>
       <c r="G66" t="n">
-        <v>4.843945861244617e-08</v>
+        <v>0.0003651831077777791</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>9.687891722489234e-08</v>
+        <v>0.0007303662155555583</v>
       </c>
       <c r="F67" t="n">
-        <v>7.265918791866924e-08</v>
+        <v>0.0005477746616666687</v>
       </c>
       <c r="G67" t="n">
-        <v>1.210986465311154e-07</v>
+        <v>0.000912957769444448</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.409412610779975e-15</v>
+        <v>2.766854436123959e-09</v>
       </c>
       <c r="F68" t="n">
-        <v>2.557059458084981e-15</v>
+        <v>2.075140827092969e-09</v>
       </c>
       <c r="G68" t="n">
-        <v>4.261765763474969e-15</v>
+        <v>3.458568045154949e-09</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.818825221559949e-15</v>
+        <v>5.533708872247918e-09</v>
       </c>
       <c r="F69" t="n">
-        <v>5.114118916169963e-15</v>
+        <v>4.150281654185939e-09</v>
       </c>
       <c r="G69" t="n">
-        <v>8.523531526949938e-15</v>
+        <v>6.917136090309899e-09</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.704706305389988e-14</v>
+        <v>1.38342721806198e-08</v>
       </c>
       <c r="F70" t="n">
-        <v>1.278529729042491e-14</v>
+        <v>1.037570413546485e-08</v>
       </c>
       <c r="G70" t="n">
-        <v>2.130882881737485e-14</v>
+        <v>1.729284022577475e-08</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.960343735410572e-15</v>
+        <v>2.069655053564895e-09</v>
       </c>
       <c r="F71" t="n">
-        <v>3.720257801557929e-15</v>
+        <v>1.552241290173671e-09</v>
       </c>
       <c r="G71" t="n">
-        <v>6.200429669263216e-15</v>
+        <v>2.587068816956119e-09</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.920687470821144e-15</v>
+        <v>4.13931010712979e-09</v>
       </c>
       <c r="F72" t="n">
-        <v>7.440515603115858e-15</v>
+        <v>3.104482580347343e-09</v>
       </c>
       <c r="G72" t="n">
-        <v>1.240085933852643e-14</v>
+        <v>5.174137633912238e-09</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.480171867705287e-14</v>
+        <v>1.034827526782448e-08</v>
       </c>
       <c r="F73" t="n">
-        <v>1.860128900778965e-14</v>
+        <v>7.761206450868357e-09</v>
       </c>
       <c r="G73" t="n">
-        <v>3.100214834631608e-14</v>
+        <v>1.29353440847806e-08</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.161295469101747e-13</v>
+        <v>1.216767426025302e-08</v>
       </c>
       <c r="F74" t="n">
-        <v>8.709716018263107e-14</v>
+        <v>9.125755695189768e-09</v>
       </c>
       <c r="G74" t="n">
-        <v>1.451619336377184e-13</v>
+        <v>1.520959282531628e-08</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2.322590938203495e-13</v>
+        <v>2.433534852050605e-08</v>
       </c>
       <c r="F75" t="n">
-        <v>1.741943203652621e-13</v>
+        <v>1.825151139037954e-08</v>
       </c>
       <c r="G75" t="n">
-        <v>2.903238672754369e-13</v>
+        <v>3.041918565063256e-08</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5.806477345508738e-13</v>
+        <v>6.083837130126512e-08</v>
       </c>
       <c r="F76" t="n">
-        <v>4.354858009131553e-13</v>
+        <v>4.562877847594885e-08</v>
       </c>
       <c r="G76" t="n">
-        <v>7.258096681885923e-13</v>
+        <v>7.604796412658141e-08</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.50032413651083e-15</v>
+        <v>1.380451779828762e-09</v>
       </c>
       <c r="F77" t="n">
-        <v>5.625243102383122e-15</v>
+        <v>1.035338834871571e-09</v>
       </c>
       <c r="G77" t="n">
-        <v>9.375405170638538e-15</v>
+        <v>1.725564724785952e-09</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.500064827302166e-14</v>
+        <v>2.760903559657524e-09</v>
       </c>
       <c r="F78" t="n">
-        <v>1.125048620476624e-14</v>
+        <v>2.070677669743143e-09</v>
       </c>
       <c r="G78" t="n">
-        <v>1.875081034127708e-14</v>
+        <v>3.451129449571905e-09</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3.750162068255415e-14</v>
+        <v>6.90225889914381e-09</v>
       </c>
       <c r="F79" t="n">
-        <v>2.812621551191561e-14</v>
+        <v>5.176694174357858e-09</v>
       </c>
       <c r="G79" t="n">
-        <v>4.687702585319269e-14</v>
+        <v>8.627823623929762e-09</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>269540.2291219704</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F80" t="n">
-        <v>202155.1718414778</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G80" t="n">
-        <v>336925.286402463</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>539080.4582439407</v>
+        <v>84270.36355435466</v>
       </c>
       <c r="F81" t="n">
-        <v>404310.3436829555</v>
+        <v>63202.772665766</v>
       </c>
       <c r="G81" t="n">
-        <v>673850.572804926</v>
+        <v>105337.9544429433</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1347701.145609852</v>
+        <v>821.411242772782</v>
       </c>
       <c r="F82" t="n">
-        <v>1010775.859207389</v>
+        <v>616.0584320795865</v>
       </c>
       <c r="G82" t="n">
-        <v>1684626.432012315</v>
+        <v>1026.764053465978</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>194488.3726934159</v>
+        <v>29009.35710078072</v>
       </c>
       <c r="F83" t="n">
-        <v>145866.279520062</v>
+        <v>21757.01782558554</v>
       </c>
       <c r="G83" t="n">
-        <v>243110.46586677</v>
+        <v>36261.6963759759</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>388976.7453868319</v>
+        <v>59462.16396111248</v>
       </c>
       <c r="F84" t="n">
-        <v>291732.5590401239</v>
+        <v>44596.62297083437</v>
       </c>
       <c r="G84" t="n">
-        <v>486220.9317335399</v>
+        <v>74327.70495139061</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>972441.8634670798</v>
+        <v>169661.1974404739</v>
       </c>
       <c r="F85" t="n">
-        <v>729331.3976003098</v>
+        <v>127245.8980803554</v>
       </c>
       <c r="G85" t="n">
-        <v>1215552.32933385</v>
+        <v>212076.4968005924</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1.944399740910398e-08</v>
+        <v>0.0001485125467276655</v>
       </c>
       <c r="F86" t="n">
-        <v>1.458299805682798e-08</v>
+        <v>0.0001113844100457491</v>
       </c>
       <c r="G86" t="n">
-        <v>2.430499676137998e-08</v>
+        <v>0.0001856406834095819</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3.888799481820795e-08</v>
+        <v>0.000297025093455331</v>
       </c>
       <c r="F87" t="n">
-        <v>2.916599611365597e-08</v>
+        <v>0.0002227688200914983</v>
       </c>
       <c r="G87" t="n">
-        <v>4.860999352275995e-08</v>
+        <v>0.0003712813668191639</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>9.721998704551991e-08</v>
+        <v>0.0007425627336383277</v>
       </c>
       <c r="F88" t="n">
-        <v>7.291499028413993e-08</v>
+        <v>0.0005569220502287457</v>
       </c>
       <c r="G88" t="n">
-        <v>1.215249838068999e-07</v>
+        <v>0.0009282034170479097</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.42147140198203e-15</v>
+        <v>2.816124201909202e-09</v>
       </c>
       <c r="F89" t="n">
-        <v>2.566103551486523e-15</v>
+        <v>2.112093151431902e-09</v>
       </c>
       <c r="G89" t="n">
-        <v>4.276839252477538e-15</v>
+        <v>3.520155252386503e-09</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6.84294280396406e-15</v>
+        <v>5.632248403818404e-09</v>
       </c>
       <c r="F90" t="n">
-        <v>5.132207102973045e-15</v>
+        <v>4.224186302863804e-09</v>
       </c>
       <c r="G90" t="n">
-        <v>8.553678504955076e-15</v>
+        <v>7.040310504773006e-09</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.710735700991015e-14</v>
+        <v>1.408062100954601e-08</v>
       </c>
       <c r="F91" t="n">
-        <v>1.283051775743261e-14</v>
+        <v>1.056046575715951e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>2.138419626238769e-14</v>
+        <v>1.760077626193252e-08</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4.97788570944907e-15</v>
+        <v>2.106402730278067e-09</v>
       </c>
       <c r="F92" t="n">
-        <v>3.733414282086803e-15</v>
+        <v>1.57980204770855e-09</v>
       </c>
       <c r="G92" t="n">
-        <v>6.222357136811338e-15</v>
+        <v>2.633003412847584e-09</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>9.95577141889814e-15</v>
+        <v>4.212805460556133e-09</v>
       </c>
       <c r="F93" t="n">
-        <v>7.466828564173606e-15</v>
+        <v>3.1596040954171e-09</v>
       </c>
       <c r="G93" t="n">
-        <v>1.244471427362268e-14</v>
+        <v>5.266006825695167e-09</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.488942854724535e-14</v>
+        <v>1.053201365139033e-08</v>
       </c>
       <c r="F94" t="n">
-        <v>1.866707141043401e-14</v>
+        <v>7.89901023854275e-09</v>
       </c>
       <c r="G94" t="n">
-        <v>3.111178568405669e-14</v>
+        <v>1.316501706423792e-08</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.165400066128285e-13</v>
+        <v>1.238158290632469e-08</v>
       </c>
       <c r="F95" t="n">
-        <v>8.740500495962137e-14</v>
+        <v>9.286187179743521e-09</v>
       </c>
       <c r="G95" t="n">
-        <v>1.456750082660356e-13</v>
+        <v>1.547697863290587e-08</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2.330800132256569e-13</v>
+        <v>2.476316581264939e-08</v>
       </c>
       <c r="F96" t="n">
-        <v>1.748100099192427e-13</v>
+        <v>1.857237435948704e-08</v>
       </c>
       <c r="G96" t="n">
-        <v>2.913500165320712e-13</v>
+        <v>3.095395726581173e-08</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5.827000330641424e-13</v>
+        <v>6.190791453162347e-08</v>
       </c>
       <c r="F97" t="n">
-        <v>4.370250247981069e-13</v>
+        <v>4.64309358987176e-08</v>
       </c>
       <c r="G97" t="n">
-        <v>7.283750413301782e-13</v>
+        <v>7.738489316452934e-08</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.526840590930277e-15</v>
+        <v>1.40484297186949e-09</v>
       </c>
       <c r="F98" t="n">
-        <v>5.645130443197708e-15</v>
+        <v>1.053632228902118e-09</v>
       </c>
       <c r="G98" t="n">
-        <v>9.408550738662848e-15</v>
+        <v>1.756053714836863e-09</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1.505368118186055e-14</v>
+        <v>2.809685943738979e-09</v>
       </c>
       <c r="F99" t="n">
-        <v>1.129026088639542e-14</v>
+        <v>2.107264457804235e-09</v>
       </c>
       <c r="G99" t="n">
-        <v>1.88171014773257e-14</v>
+        <v>3.512107429673725e-09</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3.763420295465139e-14</v>
+        <v>7.024214859347451e-09</v>
       </c>
       <c r="F100" t="n">
-        <v>2.822565221598854e-14</v>
+        <v>5.268161144510588e-09</v>
       </c>
       <c r="G100" t="n">
-        <v>4.704275369331424e-14</v>
+        <v>8.780268574184313e-09</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>269569.1248727067</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F101" t="n">
-        <v>202176.84365453</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G101" t="n">
-        <v>336961.4060908834</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>539138.2497454134</v>
+        <v>84288.07094051265</v>
       </c>
       <c r="F102" t="n">
-        <v>404353.6873090601</v>
+        <v>63216.05320538449</v>
       </c>
       <c r="G102" t="n">
-        <v>673922.8121817667</v>
+        <v>105360.0886756408</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1347845.624363533</v>
+        <v>836.1673979044415</v>
       </c>
       <c r="F103" t="n">
-        <v>1010884.21827265</v>
+        <v>627.1255484283312</v>
       </c>
       <c r="G103" t="n">
-        <v>1684807.030454417</v>
+        <v>1045.209247380552</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>194555.7961118007</v>
+        <v>29021.16202488604</v>
       </c>
       <c r="F104" t="n">
-        <v>145916.8470838505</v>
+        <v>21765.87151866453</v>
       </c>
       <c r="G104" t="n">
-        <v>243194.7451397509</v>
+        <v>36276.45253110756</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>389111.5922236014</v>
+        <v>59479.87134727047</v>
       </c>
       <c r="F105" t="n">
-        <v>291833.6941677011</v>
+        <v>44609.90351045286</v>
       </c>
       <c r="G105" t="n">
-        <v>486389.4902795018</v>
+        <v>74349.83918408809</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>972778.9805590035</v>
+        <v>169764.4905263955</v>
       </c>
       <c r="F106" t="n">
-        <v>729584.2354192528</v>
+        <v>127323.3678947966</v>
       </c>
       <c r="G106" t="n">
-        <v>1215973.725698755</v>
+        <v>212205.6131579944</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.937578344497847e-08</v>
+        <v>0.0001460732431111117</v>
       </c>
       <c r="F107" t="n">
-        <v>1.453183758373385e-08</v>
+        <v>0.0001095549323333337</v>
       </c>
       <c r="G107" t="n">
-        <v>2.421972930622308e-08</v>
+        <v>0.0001825915538888896</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3.875156688995693e-08</v>
+        <v>0.0002921464862222233</v>
       </c>
       <c r="F108" t="n">
-        <v>2.90636751674677e-08</v>
+        <v>0.0002191098646666675</v>
       </c>
       <c r="G108" t="n">
-        <v>4.843945861244617e-08</v>
+        <v>0.0003651831077777791</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>9.687891722489234e-08</v>
+        <v>0.0007303662155555583</v>
       </c>
       <c r="F109" t="n">
-        <v>7.265918791866924e-08</v>
+        <v>0.0005477746616666687</v>
       </c>
       <c r="G109" t="n">
-        <v>1.210986465311154e-07</v>
+        <v>0.000912957769444448</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.409412610779975e-15</v>
+        <v>2.766854436123959e-09</v>
       </c>
       <c r="F110" t="n">
-        <v>2.557059458084981e-15</v>
+        <v>2.075140827092969e-09</v>
       </c>
       <c r="G110" t="n">
-        <v>4.261765763474969e-15</v>
+        <v>3.458568045154949e-09</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6.818825221559949e-15</v>
+        <v>5.533708872247918e-09</v>
       </c>
       <c r="F111" t="n">
-        <v>5.114118916169963e-15</v>
+        <v>4.150281654185939e-09</v>
       </c>
       <c r="G111" t="n">
-        <v>8.523531526949938e-15</v>
+        <v>6.917136090309899e-09</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.704706305389988e-14</v>
+        <v>1.38342721806198e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>1.278529729042491e-14</v>
+        <v>1.037570413546485e-08</v>
       </c>
       <c r="G112" t="n">
-        <v>2.130882881737485e-14</v>
+        <v>1.729284022577475e-08</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.960343735410572e-15</v>
+        <v>2.069655053564895e-09</v>
       </c>
       <c r="F113" t="n">
-        <v>3.720257801557929e-15</v>
+        <v>1.552241290173671e-09</v>
       </c>
       <c r="G113" t="n">
-        <v>6.200429669263216e-15</v>
+        <v>2.587068816956119e-09</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>9.920687470821144e-15</v>
+        <v>4.13931010712979e-09</v>
       </c>
       <c r="F114" t="n">
-        <v>7.440515603115858e-15</v>
+        <v>3.104482580347343e-09</v>
       </c>
       <c r="G114" t="n">
-        <v>1.240085933852643e-14</v>
+        <v>5.174137633912238e-09</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.480171867705287e-14</v>
+        <v>1.034827526782448e-08</v>
       </c>
       <c r="F115" t="n">
-        <v>1.860128900778965e-14</v>
+        <v>7.761206450868357e-09</v>
       </c>
       <c r="G115" t="n">
-        <v>3.100214834631608e-14</v>
+        <v>1.29353440847806e-08</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1.161295469101747e-13</v>
+        <v>1.216767426025302e-08</v>
       </c>
       <c r="F116" t="n">
-        <v>8.709716018263107e-14</v>
+        <v>9.125755695189768e-09</v>
       </c>
       <c r="G116" t="n">
-        <v>1.451619336377184e-13</v>
+        <v>1.520959282531628e-08</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2.322590938203495e-13</v>
+        <v>2.433534852050605e-08</v>
       </c>
       <c r="F117" t="n">
-        <v>1.741943203652621e-13</v>
+        <v>1.825151139037954e-08</v>
       </c>
       <c r="G117" t="n">
-        <v>2.903238672754369e-13</v>
+        <v>3.041918565063256e-08</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5.806477345508738e-13</v>
+        <v>6.083837130126512e-08</v>
       </c>
       <c r="F118" t="n">
-        <v>4.354858009131553e-13</v>
+        <v>4.562877847594885e-08</v>
       </c>
       <c r="G118" t="n">
-        <v>7.258096681885923e-13</v>
+        <v>7.604796412658141e-08</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>7.50032413651083e-15</v>
+        <v>1.380451779828762e-09</v>
       </c>
       <c r="F119" t="n">
-        <v>5.625243102383122e-15</v>
+        <v>1.035338834871571e-09</v>
       </c>
       <c r="G119" t="n">
-        <v>9.375405170638538e-15</v>
+        <v>1.725564724785952e-09</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1.500064827302166e-14</v>
+        <v>2.760903559657524e-09</v>
       </c>
       <c r="F120" t="n">
-        <v>1.125048620476624e-14</v>
+        <v>2.070677669743143e-09</v>
       </c>
       <c r="G120" t="n">
-        <v>1.875081034127708e-14</v>
+        <v>3.451129449571905e-09</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3.750162068255415e-14</v>
+        <v>6.90225889914381e-09</v>
       </c>
       <c r="F121" t="n">
-        <v>2.812621551191561e-14</v>
+        <v>5.176694174357858e-09</v>
       </c>
       <c r="G121" t="n">
-        <v>4.687702585319269e-14</v>
+        <v>8.627823623929762e-09</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>269540.2291219704</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F122" t="n">
-        <v>202155.1718414778</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G122" t="n">
-        <v>336925.286402463</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>539080.4582439407</v>
+        <v>84270.36355435466</v>
       </c>
       <c r="F123" t="n">
-        <v>404310.3436829555</v>
+        <v>63202.772665766</v>
       </c>
       <c r="G123" t="n">
-        <v>673850.572804926</v>
+        <v>105337.9544429433</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1347701.145609852</v>
+        <v>821.411242772782</v>
       </c>
       <c r="F124" t="n">
-        <v>1010775.859207389</v>
+        <v>616.0584320795865</v>
       </c>
       <c r="G124" t="n">
-        <v>1684626.432012315</v>
+        <v>1026.764053465978</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>194488.3726934159</v>
+        <v>29009.35710078072</v>
       </c>
       <c r="F125" t="n">
-        <v>145866.279520062</v>
+        <v>21757.01782558554</v>
       </c>
       <c r="G125" t="n">
-        <v>243110.46586677</v>
+        <v>36261.6963759759</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>388976.7453868319</v>
+        <v>59462.16396111248</v>
       </c>
       <c r="F126" t="n">
-        <v>291732.5590401239</v>
+        <v>44596.62297083437</v>
       </c>
       <c r="G126" t="n">
-        <v>486220.9317335399</v>
+        <v>74327.70495139061</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>972441.8634670798</v>
+        <v>169661.1974404739</v>
       </c>
       <c r="F127" t="n">
-        <v>729331.3976003098</v>
+        <v>127245.8980803554</v>
       </c>
       <c r="G127" t="n">
-        <v>1215552.32933385</v>
+        <v>212076.4968005924</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1.937578344497847e-08</v>
+        <v>0.0001460732431111117</v>
       </c>
       <c r="F128" t="n">
-        <v>1.453183758373385e-08</v>
+        <v>0.0001095549323333337</v>
       </c>
       <c r="G128" t="n">
-        <v>2.421972930622308e-08</v>
+        <v>0.0001825915538888896</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3.875156688995693e-08</v>
+        <v>0.0002921464862222233</v>
       </c>
       <c r="F129" t="n">
-        <v>2.90636751674677e-08</v>
+        <v>0.0002191098646666675</v>
       </c>
       <c r="G129" t="n">
-        <v>4.843945861244617e-08</v>
+        <v>0.0003651831077777791</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>9.687891722489234e-08</v>
+        <v>0.0007303662155555583</v>
       </c>
       <c r="F130" t="n">
-        <v>7.265918791866924e-08</v>
+        <v>0.0005477746616666687</v>
       </c>
       <c r="G130" t="n">
-        <v>1.210986465311154e-07</v>
+        <v>0.000912957769444448</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3.409412610779975e-15</v>
+        <v>2.766854436123959e-09</v>
       </c>
       <c r="F131" t="n">
-        <v>2.557059458084981e-15</v>
+        <v>2.075140827092969e-09</v>
       </c>
       <c r="G131" t="n">
-        <v>4.261765763474969e-15</v>
+        <v>3.458568045154949e-09</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6.818825221559949e-15</v>
+        <v>5.533708872247918e-09</v>
       </c>
       <c r="F132" t="n">
-        <v>5.114118916169963e-15</v>
+        <v>4.150281654185939e-09</v>
       </c>
       <c r="G132" t="n">
-        <v>8.523531526949938e-15</v>
+        <v>6.917136090309899e-09</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1.704706305389988e-14</v>
+        <v>1.38342721806198e-08</v>
       </c>
       <c r="F133" t="n">
-        <v>1.278529729042491e-14</v>
+        <v>1.037570413546485e-08</v>
       </c>
       <c r="G133" t="n">
-        <v>2.130882881737485e-14</v>
+        <v>1.729284022577475e-08</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4.960343735410572e-15</v>
+        <v>2.069655053564895e-09</v>
       </c>
       <c r="F134" t="n">
-        <v>3.720257801557929e-15</v>
+        <v>1.552241290173671e-09</v>
       </c>
       <c r="G134" t="n">
-        <v>6.200429669263216e-15</v>
+        <v>2.587068816956119e-09</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>9.920687470821144e-15</v>
+        <v>4.13931010712979e-09</v>
       </c>
       <c r="F135" t="n">
-        <v>7.440515603115858e-15</v>
+        <v>3.104482580347343e-09</v>
       </c>
       <c r="G135" t="n">
-        <v>1.240085933852643e-14</v>
+        <v>5.174137633912238e-09</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2.480171867705287e-14</v>
+        <v>1.034827526782448e-08</v>
       </c>
       <c r="F136" t="n">
-        <v>1.860128900778965e-14</v>
+        <v>7.761206450868357e-09</v>
       </c>
       <c r="G136" t="n">
-        <v>3.100214834631608e-14</v>
+        <v>1.29353440847806e-08</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1.161295469101747e-13</v>
+        <v>1.216767426025302e-08</v>
       </c>
       <c r="F137" t="n">
-        <v>8.709716018263107e-14</v>
+        <v>9.125755695189768e-09</v>
       </c>
       <c r="G137" t="n">
-        <v>1.451619336377184e-13</v>
+        <v>1.520959282531628e-08</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2.322590938203495e-13</v>
+        <v>2.433534852050605e-08</v>
       </c>
       <c r="F138" t="n">
-        <v>1.741943203652621e-13</v>
+        <v>1.825151139037954e-08</v>
       </c>
       <c r="G138" t="n">
-        <v>2.903238672754369e-13</v>
+        <v>3.041918565063256e-08</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5.806477345508738e-13</v>
+        <v>6.083837130126512e-08</v>
       </c>
       <c r="F139" t="n">
-        <v>4.354858009131553e-13</v>
+        <v>4.562877847594885e-08</v>
       </c>
       <c r="G139" t="n">
-        <v>7.258096681885923e-13</v>
+        <v>7.604796412658141e-08</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7.50032413651083e-15</v>
+        <v>1.380451779828762e-09</v>
       </c>
       <c r="F140" t="n">
-        <v>5.625243102383122e-15</v>
+        <v>1.035338834871571e-09</v>
       </c>
       <c r="G140" t="n">
-        <v>9.375405170638538e-15</v>
+        <v>1.725564724785952e-09</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1.500064827302166e-14</v>
+        <v>2.760903559657524e-09</v>
       </c>
       <c r="F141" t="n">
-        <v>1.125048620476624e-14</v>
+        <v>2.070677669743143e-09</v>
       </c>
       <c r="G141" t="n">
-        <v>1.875081034127708e-14</v>
+        <v>3.451129449571905e-09</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3.750162068255415e-14</v>
+        <v>6.90225889914381e-09</v>
       </c>
       <c r="F142" t="n">
-        <v>2.812621551191561e-14</v>
+        <v>5.176694174357858e-09</v>
       </c>
       <c r="G142" t="n">
-        <v>4.687702585319269e-14</v>
+        <v>8.627823623929762e-09</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>269540.2291219704</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F143" t="n">
-        <v>202155.1718414778</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G143" t="n">
-        <v>336925.286402463</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>539080.4582439407</v>
+        <v>84270.36355435466</v>
       </c>
       <c r="F144" t="n">
-        <v>404310.3436829555</v>
+        <v>63202.772665766</v>
       </c>
       <c r="G144" t="n">
-        <v>673850.572804926</v>
+        <v>105337.9544429433</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1347701.145609852</v>
+        <v>821.411242772782</v>
       </c>
       <c r="F145" t="n">
-        <v>1010775.859207389</v>
+        <v>616.0584320795865</v>
       </c>
       <c r="G145" t="n">
-        <v>1684626.432012315</v>
+        <v>1026.764053465978</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>194488.3726934159</v>
+        <v>29009.35710078072</v>
       </c>
       <c r="F146" t="n">
-        <v>145866.279520062</v>
+        <v>21757.01782558554</v>
       </c>
       <c r="G146" t="n">
-        <v>243110.46586677</v>
+        <v>36261.6963759759</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>388976.7453868319</v>
+        <v>59462.16396111248</v>
       </c>
       <c r="F147" t="n">
-        <v>291732.5590401239</v>
+        <v>44596.62297083437</v>
       </c>
       <c r="G147" t="n">
-        <v>486220.9317335399</v>
+        <v>74327.70495139061</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>972441.8634670798</v>
+        <v>169661.1974404739</v>
       </c>
       <c r="F148" t="n">
-        <v>729331.3976003098</v>
+        <v>127245.8980803554</v>
       </c>
       <c r="G148" t="n">
-        <v>1215552.32933385</v>
+        <v>212076.4968005924</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3.652059852343407e-08</v>
+        <v>0.0007010040268677737</v>
       </c>
       <c r="F149" t="n">
-        <v>2.739044889257555e-08</v>
+        <v>0.0005257530201508303</v>
       </c>
       <c r="G149" t="n">
-        <v>4.565074815429259e-08</v>
+        <v>0.0008762550335847172</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>7.304119704686813e-08</v>
+        <v>0.001402008053735547</v>
       </c>
       <c r="F150" t="n">
-        <v>5.47808977851511e-08</v>
+        <v>0.001051506040301661</v>
       </c>
       <c r="G150" t="n">
-        <v>9.130149630858517e-08</v>
+        <v>0.001752510067169434</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1.826029926171703e-07</v>
+        <v>0.003505020134338869</v>
       </c>
       <c r="F151" t="n">
-        <v>1.369522444628778e-07</v>
+        <v>0.002628765100754151</v>
       </c>
       <c r="G151" t="n">
-        <v>2.28253740771463e-07</v>
+        <v>0.004381275167923586</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.440254578101064e-15</v>
+        <v>1.397550823270967e-08</v>
       </c>
       <c r="F152" t="n">
-        <v>4.830190933575799e-15</v>
+        <v>1.048163117453226e-08</v>
       </c>
       <c r="G152" t="n">
-        <v>8.050318222626331e-15</v>
+        <v>1.746938529088709e-08</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1.288050915620213e-14</v>
+        <v>2.795101646541935e-08</v>
       </c>
       <c r="F153" t="n">
-        <v>9.660381867151597e-15</v>
+        <v>2.096326234906452e-08</v>
       </c>
       <c r="G153" t="n">
-        <v>1.610063644525266e-14</v>
+        <v>3.493877058177419e-08</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>3.220127289050533e-14</v>
+        <v>6.987754116354838e-08</v>
       </c>
       <c r="F154" t="n">
-        <v>2.4150954667879e-14</v>
+        <v>5.240815587266128e-08</v>
       </c>
       <c r="G154" t="n">
-        <v>4.025159111313166e-14</v>
+        <v>8.734692645443547e-08</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9.369322232067277e-15</v>
+        <v>1.042958897129759e-08</v>
       </c>
       <c r="F155" t="n">
-        <v>7.026991674050459e-15</v>
+        <v>7.822191728473193e-09</v>
       </c>
       <c r="G155" t="n">
-        <v>1.17116527900841e-14</v>
+        <v>1.303698621412199e-08</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1.873864446413455e-14</v>
+        <v>2.085917794259518e-08</v>
       </c>
       <c r="F156" t="n">
-        <v>1.405398334810092e-14</v>
+        <v>1.564438345694639e-08</v>
       </c>
       <c r="G156" t="n">
-        <v>2.34233055801682e-14</v>
+        <v>2.607397242824398e-08</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4.684661116033639e-14</v>
+        <v>5.214794485648795e-08</v>
       </c>
       <c r="F157" t="n">
-        <v>3.513495837025229e-14</v>
+        <v>3.911095864236597e-08</v>
       </c>
       <c r="G157" t="n">
-        <v>5.85582639504205e-14</v>
+        <v>6.518493107060995e-08</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2.192939911610289e-13</v>
+        <v>6.083094512629553e-08</v>
       </c>
       <c r="F158" t="n">
-        <v>1.644704933707717e-13</v>
+        <v>4.562320884472166e-08</v>
       </c>
       <c r="G158" t="n">
-        <v>2.741174889512862e-13</v>
+        <v>7.603868140786942e-08</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4.385879823220579e-13</v>
+        <v>1.216618902525911e-07</v>
       </c>
       <c r="F159" t="n">
-        <v>3.289409867415434e-13</v>
+        <v>9.124641768944331e-08</v>
       </c>
       <c r="G159" t="n">
-        <v>5.482349779025724e-13</v>
+        <v>1.520773628157388e-07</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1.096469955805145e-12</v>
+        <v>3.041547256314777e-07</v>
       </c>
       <c r="F160" t="n">
-        <v>8.223524668538586e-13</v>
+        <v>2.281160442236083e-07</v>
       </c>
       <c r="G160" t="n">
-        <v>1.370587444756431e-12</v>
+        <v>3.801934070393472e-07</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1.416493765642335e-14</v>
+        <v>6.929340087157489e-09</v>
       </c>
       <c r="F161" t="n">
-        <v>1.062370324231751e-14</v>
+        <v>5.197005065368117e-09</v>
       </c>
       <c r="G161" t="n">
-        <v>1.770617207052919e-14</v>
+        <v>8.661675108946862e-09</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2.832987531284669e-14</v>
+        <v>1.385868017431498e-08</v>
       </c>
       <c r="F162" t="n">
-        <v>2.124740648463502e-14</v>
+        <v>1.039401013073623e-08</v>
       </c>
       <c r="G162" t="n">
-        <v>3.541234414105838e-14</v>
+        <v>1.732335021789372e-08</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7.082468828211675e-14</v>
+        <v>3.464670043578745e-08</v>
       </c>
       <c r="F163" t="n">
-        <v>5.311851621158755e-14</v>
+        <v>2.598502532684059e-08</v>
       </c>
       <c r="G163" t="n">
-        <v>8.853086035264594e-14</v>
+        <v>4.330837554473431e-08</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>276802.852094823</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F164" t="n">
-        <v>207602.1390711173</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G164" t="n">
-        <v>346003.5651185288</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>553605.7041896461</v>
+        <v>88298.71558575051</v>
       </c>
       <c r="F165" t="n">
-        <v>415204.2781422346</v>
+        <v>66224.03668931288</v>
       </c>
       <c r="G165" t="n">
-        <v>692007.1302370577</v>
+        <v>110373.3944821881</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1384014.260474115</v>
+        <v>4178.371268935985</v>
       </c>
       <c r="F166" t="n">
-        <v>1038010.695355586</v>
+        <v>3133.778451701989</v>
       </c>
       <c r="G166" t="n">
-        <v>1730017.825592644</v>
+        <v>5222.964086169982</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>211434.4929634055</v>
+        <v>31694.92512171128</v>
       </c>
       <c r="F167" t="n">
-        <v>158575.8697225541</v>
+        <v>23771.19384128346</v>
       </c>
       <c r="G167" t="n">
-        <v>264293.1162042569</v>
+        <v>39618.6564021391</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>422868.985926811</v>
+        <v>63490.51599250832</v>
       </c>
       <c r="F168" t="n">
-        <v>317151.7394451083</v>
+        <v>47617.88699438125</v>
       </c>
       <c r="G168" t="n">
-        <v>528586.2324085139</v>
+        <v>79363.14499063541</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1057172.464817028</v>
+        <v>193159.9176236163</v>
       </c>
       <c r="F169" t="n">
-        <v>792879.3486127707</v>
+        <v>144869.9382177123</v>
       </c>
       <c r="G169" t="n">
-        <v>1321465.581021285</v>
+        <v>241449.8970295205</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1.937578344497847e-08</v>
+        <v>0.0001460732431111117</v>
       </c>
       <c r="F170" t="n">
-        <v>1.453183758373385e-08</v>
+        <v>0.0001095549323333337</v>
       </c>
       <c r="G170" t="n">
-        <v>2.421972930622308e-08</v>
+        <v>0.0001825915538888896</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.875156688995693e-08</v>
+        <v>0.0002921464862222233</v>
       </c>
       <c r="F171" t="n">
-        <v>2.90636751674677e-08</v>
+        <v>0.0002191098646666675</v>
       </c>
       <c r="G171" t="n">
-        <v>4.843945861244617e-08</v>
+        <v>0.0003651831077777791</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.687891722489234e-08</v>
+        <v>0.0007303662155555583</v>
       </c>
       <c r="F172" t="n">
-        <v>7.265918791866924e-08</v>
+        <v>0.0005477746616666687</v>
       </c>
       <c r="G172" t="n">
-        <v>1.210986465311154e-07</v>
+        <v>0.000912957769444448</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.409412610779975e-15</v>
+        <v>2.766854436123959e-09</v>
       </c>
       <c r="F173" t="n">
-        <v>2.557059458084981e-15</v>
+        <v>2.075140827092969e-09</v>
       </c>
       <c r="G173" t="n">
-        <v>4.261765763474969e-15</v>
+        <v>3.458568045154949e-09</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>6.818825221559949e-15</v>
+        <v>5.533708872247918e-09</v>
       </c>
       <c r="F174" t="n">
-        <v>5.114118916169963e-15</v>
+        <v>4.150281654185939e-09</v>
       </c>
       <c r="G174" t="n">
-        <v>8.523531526949938e-15</v>
+        <v>6.917136090309899e-09</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1.704706305389988e-14</v>
+        <v>1.38342721806198e-08</v>
       </c>
       <c r="F175" t="n">
-        <v>1.278529729042491e-14</v>
+        <v>1.037570413546485e-08</v>
       </c>
       <c r="G175" t="n">
-        <v>2.130882881737485e-14</v>
+        <v>1.729284022577475e-08</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4.960343735410572e-15</v>
+        <v>2.069655053564895e-09</v>
       </c>
       <c r="F176" t="n">
-        <v>3.720257801557929e-15</v>
+        <v>1.552241290173671e-09</v>
       </c>
       <c r="G176" t="n">
-        <v>6.200429669263216e-15</v>
+        <v>2.587068816956119e-09</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>9.920687470821144e-15</v>
+        <v>4.13931010712979e-09</v>
       </c>
       <c r="F177" t="n">
-        <v>7.440515603115858e-15</v>
+        <v>3.104482580347343e-09</v>
       </c>
       <c r="G177" t="n">
-        <v>1.240085933852643e-14</v>
+        <v>5.174137633912238e-09</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2.480171867705287e-14</v>
+        <v>1.034827526782448e-08</v>
       </c>
       <c r="F178" t="n">
-        <v>1.860128900778965e-14</v>
+        <v>7.761206450868357e-09</v>
       </c>
       <c r="G178" t="n">
-        <v>3.100214834631608e-14</v>
+        <v>1.29353440847806e-08</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1.161295469101747e-13</v>
+        <v>1.216767426025302e-08</v>
       </c>
       <c r="F179" t="n">
-        <v>8.709716018263107e-14</v>
+        <v>9.125755695189768e-09</v>
       </c>
       <c r="G179" t="n">
-        <v>1.451619336377184e-13</v>
+        <v>1.520959282531628e-08</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2.322590938203495e-13</v>
+        <v>2.433534852050605e-08</v>
       </c>
       <c r="F180" t="n">
-        <v>1.741943203652621e-13</v>
+        <v>1.825151139037954e-08</v>
       </c>
       <c r="G180" t="n">
-        <v>2.903238672754369e-13</v>
+        <v>3.041918565063256e-08</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5.806477345508738e-13</v>
+        <v>6.083837130126512e-08</v>
       </c>
       <c r="F181" t="n">
-        <v>4.354858009131553e-13</v>
+        <v>4.562877847594885e-08</v>
       </c>
       <c r="G181" t="n">
-        <v>7.258096681885923e-13</v>
+        <v>7.604796412658141e-08</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.50032413651083e-15</v>
+        <v>1.380451779828762e-09</v>
       </c>
       <c r="F182" t="n">
-        <v>5.625243102383122e-15</v>
+        <v>1.035338834871571e-09</v>
       </c>
       <c r="G182" t="n">
-        <v>9.375405170638538e-15</v>
+        <v>1.725564724785952e-09</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1.500064827302166e-14</v>
+        <v>2.760903559657524e-09</v>
       </c>
       <c r="F183" t="n">
-        <v>1.125048620476624e-14</v>
+        <v>2.070677669743143e-09</v>
       </c>
       <c r="G183" t="n">
-        <v>1.875081034127708e-14</v>
+        <v>3.451129449571905e-09</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.750162068255415e-14</v>
+        <v>6.90225889914381e-09</v>
       </c>
       <c r="F184" t="n">
-        <v>2.812621551191561e-14</v>
+        <v>5.176694174357858e-09</v>
       </c>
       <c r="G184" t="n">
-        <v>4.687702585319269e-14</v>
+        <v>8.627823623929762e-09</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>269540.2291219704</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F185" t="n">
-        <v>202155.1718414778</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G185" t="n">
-        <v>336925.286402463</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>539080.4582439407</v>
+        <v>84270.36355435466</v>
       </c>
       <c r="F186" t="n">
-        <v>404310.3436829555</v>
+        <v>63202.772665766</v>
       </c>
       <c r="G186" t="n">
-        <v>673850.572804926</v>
+        <v>105337.9544429433</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1347701.145609852</v>
+        <v>821.411242772782</v>
       </c>
       <c r="F187" t="n">
-        <v>1010775.859207389</v>
+        <v>616.0584320795865</v>
       </c>
       <c r="G187" t="n">
-        <v>1684626.432012315</v>
+        <v>1026.764053465978</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>194488.3726934159</v>
+        <v>29009.35710078072</v>
       </c>
       <c r="F188" t="n">
-        <v>145866.279520062</v>
+        <v>21757.01782558554</v>
       </c>
       <c r="G188" t="n">
-        <v>243110.46586677</v>
+        <v>36261.6963759759</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>388976.7453868319</v>
+        <v>59462.16396111248</v>
       </c>
       <c r="F189" t="n">
-        <v>291732.5590401239</v>
+        <v>44596.62297083437</v>
       </c>
       <c r="G189" t="n">
-        <v>486220.9317335399</v>
+        <v>74327.70495139061</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>972441.8634670798</v>
+        <v>169661.1974404739</v>
       </c>
       <c r="F190" t="n">
-        <v>729331.3976003098</v>
+        <v>127245.8980803554</v>
       </c>
       <c r="G190" t="n">
-        <v>1215552.32933385</v>
+        <v>212076.4968005924</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1.937578344497847e-08</v>
+        <v>0.0001460732431111117</v>
       </c>
       <c r="F191" t="n">
-        <v>1.453183758373385e-08</v>
+        <v>0.0001095549323333337</v>
       </c>
       <c r="G191" t="n">
-        <v>2.421972930622308e-08</v>
+        <v>0.0001825915538888896</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3.875156688995693e-08</v>
+        <v>0.0002921464862222233</v>
       </c>
       <c r="F192" t="n">
-        <v>2.90636751674677e-08</v>
+        <v>0.0002191098646666675</v>
       </c>
       <c r="G192" t="n">
-        <v>4.843945861244617e-08</v>
+        <v>0.0003651831077777791</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>9.687891722489234e-08</v>
+        <v>0.0007303662155555583</v>
       </c>
       <c r="F193" t="n">
-        <v>7.265918791866924e-08</v>
+        <v>0.0005477746616666687</v>
       </c>
       <c r="G193" t="n">
-        <v>1.210986465311154e-07</v>
+        <v>0.000912957769444448</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.409412610779975e-15</v>
+        <v>2.766854436123959e-09</v>
       </c>
       <c r="F194" t="n">
-        <v>2.557059458084981e-15</v>
+        <v>2.075140827092969e-09</v>
       </c>
       <c r="G194" t="n">
-        <v>4.261765763474969e-15</v>
+        <v>3.458568045154949e-09</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.818825221559949e-15</v>
+        <v>5.533708872247918e-09</v>
       </c>
       <c r="F195" t="n">
-        <v>5.114118916169963e-15</v>
+        <v>4.150281654185939e-09</v>
       </c>
       <c r="G195" t="n">
-        <v>8.523531526949938e-15</v>
+        <v>6.917136090309899e-09</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1.704706305389988e-14</v>
+        <v>1.38342721806198e-08</v>
       </c>
       <c r="F196" t="n">
-        <v>1.278529729042491e-14</v>
+        <v>1.037570413546485e-08</v>
       </c>
       <c r="G196" t="n">
-        <v>2.130882881737485e-14</v>
+        <v>1.729284022577475e-08</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4.960343735410572e-15</v>
+        <v>2.069655053564895e-09</v>
       </c>
       <c r="F197" t="n">
-        <v>3.720257801557929e-15</v>
+        <v>1.552241290173671e-09</v>
       </c>
       <c r="G197" t="n">
-        <v>6.200429669263216e-15</v>
+        <v>2.587068816956119e-09</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>9.920687470821144e-15</v>
+        <v>4.13931010712979e-09</v>
       </c>
       <c r="F198" t="n">
-        <v>7.440515603115858e-15</v>
+        <v>3.104482580347343e-09</v>
       </c>
       <c r="G198" t="n">
-        <v>1.240085933852643e-14</v>
+        <v>5.174137633912238e-09</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.480171867705287e-14</v>
+        <v>1.034827526782448e-08</v>
       </c>
       <c r="F199" t="n">
-        <v>1.860128900778965e-14</v>
+        <v>7.761206450868357e-09</v>
       </c>
       <c r="G199" t="n">
-        <v>3.100214834631608e-14</v>
+        <v>1.29353440847806e-08</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.161295469101747e-13</v>
+        <v>1.216767426025302e-08</v>
       </c>
       <c r="F200" t="n">
-        <v>8.709716018263107e-14</v>
+        <v>9.125755695189768e-09</v>
       </c>
       <c r="G200" t="n">
-        <v>1.451619336377184e-13</v>
+        <v>1.520959282531628e-08</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2.322590938203495e-13</v>
+        <v>2.433534852050605e-08</v>
       </c>
       <c r="F201" t="n">
-        <v>1.741943203652621e-13</v>
+        <v>1.825151139037954e-08</v>
       </c>
       <c r="G201" t="n">
-        <v>2.903238672754369e-13</v>
+        <v>3.041918565063256e-08</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>5.806477345508738e-13</v>
+        <v>6.083837130126512e-08</v>
       </c>
       <c r="F202" t="n">
-        <v>4.354858009131553e-13</v>
+        <v>4.562877847594885e-08</v>
       </c>
       <c r="G202" t="n">
-        <v>7.258096681885923e-13</v>
+        <v>7.604796412658141e-08</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.50032413651083e-15</v>
+        <v>1.380451779828762e-09</v>
       </c>
       <c r="F203" t="n">
-        <v>5.625243102383122e-15</v>
+        <v>1.035338834871571e-09</v>
       </c>
       <c r="G203" t="n">
-        <v>9.375405170638538e-15</v>
+        <v>1.725564724785952e-09</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.500064827302166e-14</v>
+        <v>2.760903559657524e-09</v>
       </c>
       <c r="F204" t="n">
-        <v>1.125048620476624e-14</v>
+        <v>2.070677669743143e-09</v>
       </c>
       <c r="G204" t="n">
-        <v>1.875081034127708e-14</v>
+        <v>3.451129449571905e-09</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3.750162068255415e-14</v>
+        <v>6.90225889914381e-09</v>
       </c>
       <c r="F205" t="n">
-        <v>2.812621551191561e-14</v>
+        <v>5.176694174357858e-09</v>
       </c>
       <c r="G205" t="n">
-        <v>4.687702585319269e-14</v>
+        <v>8.627823623929762e-09</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>269540.2291219704</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F206" t="n">
-        <v>202155.1718414778</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G206" t="n">
-        <v>336925.286402463</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>539080.4582439407</v>
+        <v>84270.36355435466</v>
       </c>
       <c r="F207" t="n">
-        <v>404310.3436829555</v>
+        <v>63202.772665766</v>
       </c>
       <c r="G207" t="n">
-        <v>673850.572804926</v>
+        <v>105337.9544429433</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1347701.145609852</v>
+        <v>821.411242772782</v>
       </c>
       <c r="F208" t="n">
-        <v>1010775.859207389</v>
+        <v>616.0584320795865</v>
       </c>
       <c r="G208" t="n">
-        <v>1684626.432012315</v>
+        <v>1026.764053465978</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>194488.3726934159</v>
+        <v>29009.35710078072</v>
       </c>
       <c r="F209" t="n">
-        <v>145866.279520062</v>
+        <v>21757.01782558554</v>
       </c>
       <c r="G209" t="n">
-        <v>243110.46586677</v>
+        <v>36261.6963759759</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>388976.7453868319</v>
+        <v>59462.16396111248</v>
       </c>
       <c r="F210" t="n">
-        <v>291732.5590401239</v>
+        <v>44596.62297083437</v>
       </c>
       <c r="G210" t="n">
-        <v>486220.9317335399</v>
+        <v>74327.70495139061</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>972441.8634670798</v>
+        <v>169661.1974404739</v>
       </c>
       <c r="F211" t="n">
-        <v>729331.3976003098</v>
+        <v>127245.8980803554</v>
       </c>
       <c r="G211" t="n">
-        <v>1215552.32933385</v>
+        <v>212076.4968005924</v>
       </c>
     </row>
   </sheetData>
